--- a/data/input/absenteeism_data_9.xlsx
+++ b/data/input/absenteeism_data_9.xlsx
@@ -476,103 +476,103 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>81801</v>
+        <v>22647</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sr. Samuel Rodrigues</t>
+          <t>Lucas Ribeiro</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45100</v>
+        <v>45087</v>
       </c>
       <c r="G2" t="n">
-        <v>5051.07</v>
+        <v>9625.629999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7431</v>
+        <v>73598</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Caroline Moura</t>
+          <t>Sophie Cavalcanti</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45080</v>
+        <v>45082</v>
       </c>
       <c r="G3" t="n">
-        <v>11204.88</v>
+        <v>7854.11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>72555</v>
+        <v>67626</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Isabelly Pires</t>
+          <t>Enrico Pereira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45083</v>
+        <v>45091</v>
       </c>
       <c r="G4" t="n">
-        <v>10007.93</v>
+        <v>10199.84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>87229</v>
+        <v>35437</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>João Almeida</t>
+          <t>Nina Costa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,172 +581,172 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45096</v>
+        <v>45084</v>
       </c>
       <c r="G5" t="n">
-        <v>4469.16</v>
+        <v>9073.24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>45899</v>
+        <v>72921</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Benício Pereira</t>
+          <t>Sabrina Cavalcanti</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45078</v>
+        <v>45090</v>
       </c>
       <c r="G6" t="n">
-        <v>4826.59</v>
+        <v>7511.01</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>46063</v>
+        <v>8023</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Lucca Alves</t>
+          <t>Srta. Ana Beatriz Santos</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45081</v>
+        <v>45087</v>
       </c>
       <c r="G7" t="n">
-        <v>12080.67</v>
+        <v>10129.32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>23541</v>
+        <v>46465</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Maria Sophia Costela</t>
+          <t>Isadora Silva</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45084</v>
+        <v>45092</v>
       </c>
       <c r="G8" t="n">
-        <v>11768.88</v>
+        <v>10725.94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>31419</v>
+        <v>7240</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rafaela Peixoto</t>
+          <t>Davi Barros</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45094</v>
+        <v>45084</v>
       </c>
       <c r="G9" t="n">
-        <v>5640.25</v>
+        <v>5940.09</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2598</v>
+        <v>76532</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sr. Lucas Novaes</t>
+          <t>Carolina Cavalcanti</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45099</v>
+        <v>45092</v>
       </c>
       <c r="G10" t="n">
-        <v>5247.39</v>
+        <v>9000.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>57325</v>
+        <v>15839</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Alícia Gonçalves</t>
+          <t>Yago Cardoso</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45082</v>
+        <v>45105</v>
       </c>
       <c r="G11" t="n">
-        <v>7569.13</v>
+        <v>3917.7</v>
       </c>
     </row>
   </sheetData>
